--- a/natmiOut/OldD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>133.305275902066</v>
+        <v>2.785195</v>
       </c>
       <c r="H2">
-        <v>133.305275902066</v>
+        <v>8.355585</v>
       </c>
       <c r="I2">
-        <v>0.9018722283902998</v>
+        <v>0.01643037825317197</v>
       </c>
       <c r="J2">
-        <v>0.9018722283902998</v>
+        <v>0.0169874909743881</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N2">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O2">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P2">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q2">
-        <v>905.4523117700332</v>
+        <v>41.24858290747834</v>
       </c>
       <c r="R2">
-        <v>905.4523117700332</v>
+        <v>371.237246167305</v>
       </c>
       <c r="S2">
-        <v>0.01252975578716891</v>
+        <v>0.0004409933511723084</v>
       </c>
       <c r="T2">
-        <v>0.01252975578716891</v>
+        <v>0.0004881753255346436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>133.305275902066</v>
+        <v>2.785195</v>
       </c>
       <c r="H3">
-        <v>133.305275902066</v>
+        <v>8.355585</v>
       </c>
       <c r="I3">
-        <v>0.9018722283902998</v>
+        <v>0.01643037825317197</v>
       </c>
       <c r="J3">
-        <v>0.9018722283902998</v>
+        <v>0.0169874909743881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N3">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O3">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P3">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q3">
-        <v>23689.21404727575</v>
+        <v>530.4984107890366</v>
       </c>
       <c r="R3">
-        <v>23689.21404727575</v>
+        <v>4774.48569710133</v>
       </c>
       <c r="S3">
-        <v>0.3278141354811879</v>
+        <v>0.005671619616368127</v>
       </c>
       <c r="T3">
-        <v>0.3278141354811879</v>
+        <v>0.006278427430184442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>133.305275902066</v>
+        <v>2.785195</v>
       </c>
       <c r="H4">
-        <v>133.305275902066</v>
+        <v>8.355585</v>
       </c>
       <c r="I4">
-        <v>0.9018722283902998</v>
+        <v>0.01643037825317197</v>
       </c>
       <c r="J4">
-        <v>0.9018722283902998</v>
+        <v>0.0169874909743881</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N4">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O4">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P4">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q4">
-        <v>16483.58649870719</v>
+        <v>366.63629620576</v>
       </c>
       <c r="R4">
-        <v>16483.58649870719</v>
+        <v>3299.726665851841</v>
       </c>
       <c r="S4">
-        <v>0.2281018123657204</v>
+        <v>0.003919750874541389</v>
       </c>
       <c r="T4">
-        <v>0.2281018123657204</v>
+        <v>0.004339125871415415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>133.305275902066</v>
+        <v>2.785195</v>
       </c>
       <c r="H5">
-        <v>133.305275902066</v>
+        <v>8.355585</v>
       </c>
       <c r="I5">
-        <v>0.9018722283902998</v>
+        <v>0.01643037825317197</v>
       </c>
       <c r="J5">
-        <v>0.9018722283902998</v>
+        <v>0.0169874909743881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N5">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O5">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P5">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q5">
-        <v>11668.35077483441</v>
+        <v>294.06169023616</v>
       </c>
       <c r="R5">
-        <v>11668.35077483441</v>
+        <v>2646.55521212544</v>
       </c>
       <c r="S5">
-        <v>0.1614680129999277</v>
+        <v>0.003143847402455291</v>
       </c>
       <c r="T5">
-        <v>0.1614680129999277</v>
+        <v>0.003480208318436044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>133.305275902066</v>
+        <v>2.785195</v>
       </c>
       <c r="H6">
-        <v>133.305275902066</v>
+        <v>8.355585</v>
       </c>
       <c r="I6">
-        <v>0.9018722283902998</v>
+        <v>0.01643037825317197</v>
       </c>
       <c r="J6">
-        <v>0.9018722283902998</v>
+        <v>0.0169874909743881</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.21790004556171</v>
+        <v>109.2851675</v>
       </c>
       <c r="N6">
-        <v>93.21790004556171</v>
+        <v>218.570335</v>
       </c>
       <c r="O6">
-        <v>0.1906683744583352</v>
+        <v>0.1980579484228624</v>
       </c>
       <c r="P6">
-        <v>0.1906683744583352</v>
+        <v>0.141371909038148</v>
       </c>
       <c r="Q6">
-        <v>12426.43788458481</v>
+        <v>304.3805020951625</v>
       </c>
       <c r="R6">
-        <v>12426.43788458481</v>
+        <v>1826.283012570975</v>
       </c>
       <c r="S6">
-        <v>0.1719585117562949</v>
+        <v>0.003254167008634854</v>
       </c>
       <c r="T6">
-        <v>0.1719585117562949</v>
+        <v>0.002401554028817554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.97591839193436</v>
+        <v>142.3248396666667</v>
       </c>
       <c r="H7">
-        <v>1.97591839193436</v>
+        <v>426.974519</v>
       </c>
       <c r="I7">
-        <v>0.01336800746401366</v>
+        <v>0.8396004410985183</v>
       </c>
       <c r="J7">
-        <v>0.01336800746401366</v>
+        <v>0.8680691762223948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N7">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O7">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P7">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q7">
-        <v>13.42107327515133</v>
+        <v>2107.822952713925</v>
       </c>
       <c r="R7">
-        <v>13.42107327515133</v>
+        <v>18970.40657442533</v>
       </c>
       <c r="S7">
-        <v>0.0001857223934970254</v>
+        <v>0.02253497798167267</v>
       </c>
       <c r="T7">
-        <v>0.0001857223934970254</v>
+        <v>0.02494600016729204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.97591839193436</v>
+        <v>142.3248396666667</v>
       </c>
       <c r="H8">
-        <v>1.97591839193436</v>
+        <v>426.974519</v>
       </c>
       <c r="I8">
-        <v>0.01336800746401366</v>
+        <v>0.8396004410985183</v>
       </c>
       <c r="J8">
-        <v>0.01336800746401366</v>
+        <v>0.8680691762223948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N8">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O8">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P8">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q8">
-        <v>351.1335422378171</v>
+        <v>27108.73072045983</v>
       </c>
       <c r="R8">
-        <v>351.1335422378171</v>
+        <v>243978.5764841385</v>
       </c>
       <c r="S8">
-        <v>0.004859027334441025</v>
+        <v>0.2898225627110185</v>
       </c>
       <c r="T8">
-        <v>0.004859027334441025</v>
+        <v>0.3208307416032998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.97591839193436</v>
+        <v>142.3248396666667</v>
       </c>
       <c r="H9">
-        <v>1.97591839193436</v>
+        <v>426.974519</v>
       </c>
       <c r="I9">
-        <v>0.01336800746401366</v>
+        <v>0.8396004410985183</v>
       </c>
       <c r="J9">
-        <v>0.01336800746401366</v>
+        <v>0.8680691762223948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N9">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O9">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P9">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q9">
-        <v>244.3280770954968</v>
+        <v>18735.29575970993</v>
       </c>
       <c r="R9">
-        <v>244.3280770954968</v>
+        <v>168617.6618373894</v>
       </c>
       <c r="S9">
-        <v>0.003381040722034934</v>
+        <v>0.2003012050331771</v>
       </c>
       <c r="T9">
-        <v>0.003381040722034934</v>
+        <v>0.2217314744363265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.97591839193436</v>
+        <v>142.3248396666667</v>
       </c>
       <c r="H10">
-        <v>1.97591839193436</v>
+        <v>426.974519</v>
       </c>
       <c r="I10">
-        <v>0.01336800746401366</v>
+        <v>0.8396004410985183</v>
       </c>
       <c r="J10">
-        <v>0.01336800746401366</v>
+        <v>0.8680691762223948</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N10">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O10">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P10">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q10">
-        <v>172.9542116283151</v>
+        <v>15026.69756156049</v>
       </c>
       <c r="R10">
-        <v>172.9542116283151</v>
+        <v>135240.2780540444</v>
       </c>
       <c r="S10">
-        <v>0.002393360761130301</v>
+        <v>0.1606521545137471</v>
       </c>
       <c r="T10">
-        <v>0.002393360761130301</v>
+        <v>0.1778403633957441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.97591839193436</v>
+        <v>142.3248396666667</v>
       </c>
       <c r="H11">
-        <v>1.97591839193436</v>
+        <v>426.974519</v>
       </c>
       <c r="I11">
-        <v>0.01336800746401366</v>
+        <v>0.8396004410985183</v>
       </c>
       <c r="J11">
-        <v>0.01336800746401366</v>
+        <v>0.8680691762223948</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>93.21790004556171</v>
+        <v>109.2851675</v>
       </c>
       <c r="N11">
-        <v>93.21790004556171</v>
+        <v>218.570335</v>
       </c>
       <c r="O11">
-        <v>0.1906683744583352</v>
+        <v>0.1980579484228624</v>
       </c>
       <c r="P11">
-        <v>0.1906683744583352</v>
+        <v>0.141371909038148</v>
       </c>
       <c r="Q11">
-        <v>184.1909631575242</v>
+        <v>15553.99394238231</v>
       </c>
       <c r="R11">
-        <v>184.1909631575242</v>
+        <v>93323.96365429387</v>
       </c>
       <c r="S11">
-        <v>0.002548856252910377</v>
+        <v>0.1662895408589028</v>
       </c>
       <c r="T11">
-        <v>0.002548856252910377</v>
+        <v>0.1227205966197324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.72977156632601</v>
+        <v>2.234274666666666</v>
       </c>
       <c r="H12">
-        <v>3.72977156632601</v>
+        <v>6.702824</v>
       </c>
       <c r="I12">
-        <v>0.02523364038780017</v>
+        <v>0.01318039774407647</v>
       </c>
       <c r="J12">
-        <v>0.02523364038780017</v>
+        <v>0.01362731181633745</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N12">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O12">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P12">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q12">
-        <v>25.33380816514018</v>
+        <v>33.08948343871022</v>
       </c>
       <c r="R12">
-        <v>25.33380816514018</v>
+        <v>297.805350948392</v>
       </c>
       <c r="S12">
-        <v>0.0003505722226802511</v>
+        <v>0.0003537634789279478</v>
       </c>
       <c r="T12">
-        <v>0.0003505722226802511</v>
+        <v>0.0003916127103250607</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.72977156632601</v>
+        <v>2.234274666666666</v>
       </c>
       <c r="H13">
-        <v>3.72977156632601</v>
+        <v>6.702824</v>
       </c>
       <c r="I13">
-        <v>0.02523364038780017</v>
+        <v>0.01318039774407647</v>
       </c>
       <c r="J13">
-        <v>0.02523364038780017</v>
+        <v>0.01362731181633745</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N13">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O13">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P13">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q13">
-        <v>662.8046518357677</v>
+        <v>425.5641561660391</v>
       </c>
       <c r="R13">
-        <v>662.8046518357677</v>
+        <v>3830.077405494352</v>
       </c>
       <c r="S13">
-        <v>0.009171968875828477</v>
+        <v>0.004549755413111477</v>
       </c>
       <c r="T13">
-        <v>0.009171968875828477</v>
+        <v>0.005036534732313608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.72977156632601</v>
+        <v>2.234274666666666</v>
       </c>
       <c r="H14">
-        <v>3.72977156632601</v>
+        <v>6.702824</v>
       </c>
       <c r="I14">
-        <v>0.02523364038780017</v>
+        <v>0.01318039774407647</v>
       </c>
       <c r="J14">
-        <v>0.02523364038780017</v>
+        <v>0.01362731181633745</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N14">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O14">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P14">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q14">
-        <v>461.1971418079528</v>
+        <v>294.1144833640107</v>
       </c>
       <c r="R14">
-        <v>461.1971418079528</v>
+        <v>2647.030350276096</v>
       </c>
       <c r="S14">
-        <v>0.006382100394992012</v>
+        <v>0.003144411819866234</v>
       </c>
       <c r="T14">
-        <v>0.006382100394992012</v>
+        <v>0.003480833122988296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.72977156632601</v>
+        <v>2.234274666666666</v>
       </c>
       <c r="H15">
-        <v>3.72977156632601</v>
+        <v>6.702824</v>
       </c>
       <c r="I15">
-        <v>0.02523364038780017</v>
+        <v>0.01318039774407647</v>
       </c>
       <c r="J15">
-        <v>0.02523364038780017</v>
+        <v>0.01362731181633745</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N15">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O15">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P15">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q15">
-        <v>326.4708215889973</v>
+        <v>235.8953627777706</v>
       </c>
       <c r="R15">
-        <v>326.4708215889973</v>
+        <v>2123.058264999936</v>
       </c>
       <c r="S15">
-        <v>0.00451774169989138</v>
+        <v>0.002521984495581695</v>
       </c>
       <c r="T15">
-        <v>0.00451774169989138</v>
+        <v>0.002791812164176746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.72977156632601</v>
+        <v>2.234274666666666</v>
       </c>
       <c r="H16">
-        <v>3.72977156632601</v>
+        <v>6.702824</v>
       </c>
       <c r="I16">
-        <v>0.02523364038780017</v>
+        <v>0.01318039774407647</v>
       </c>
       <c r="J16">
-        <v>0.02523364038780017</v>
+        <v>0.01362731181633745</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.21790004556171</v>
+        <v>109.2851675</v>
       </c>
       <c r="N16">
-        <v>93.21790004556171</v>
+        <v>218.570335</v>
       </c>
       <c r="O16">
-        <v>0.1906683744583352</v>
+        <v>0.1980579484228624</v>
       </c>
       <c r="P16">
-        <v>0.1906683744583352</v>
+        <v>0.141371909038148</v>
       </c>
       <c r="Q16">
-        <v>347.6814730625561</v>
+        <v>244.1730811876733</v>
       </c>
       <c r="R16">
-        <v>347.6814730625561</v>
+        <v>1465.03848712604</v>
       </c>
       <c r="S16">
-        <v>0.004811257194408053</v>
+        <v>0.002610482536589108</v>
       </c>
       <c r="T16">
-        <v>0.004811257194408053</v>
+        <v>0.001926519086533736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.79852611171826</v>
+        <v>5.492688</v>
       </c>
       <c r="H17">
-        <v>8.79852611171826</v>
+        <v>16.478064</v>
       </c>
       <c r="I17">
-        <v>0.05952612375788651</v>
+        <v>0.03240237809799983</v>
       </c>
       <c r="J17">
-        <v>0.05952612375788651</v>
+        <v>0.03350106108374092</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N17">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O17">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P17">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q17">
-        <v>59.76241940999449</v>
+        <v>81.34640352036801</v>
       </c>
       <c r="R17">
-        <v>59.76241940999449</v>
+        <v>732.1176316833121</v>
       </c>
       <c r="S17">
-        <v>0.0008269994020930577</v>
+        <v>0.0008696837701000913</v>
       </c>
       <c r="T17">
-        <v>0.0008269994020930577</v>
+        <v>0.0009627314254334904</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.79852611171826</v>
+        <v>5.492688</v>
       </c>
       <c r="H18">
-        <v>8.79852611171826</v>
+        <v>16.478064</v>
       </c>
       <c r="I18">
-        <v>0.05952612375788651</v>
+        <v>0.03240237809799983</v>
       </c>
       <c r="J18">
-        <v>0.05952612375788651</v>
+        <v>0.03350106108374092</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N18">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O18">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P18">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q18">
-        <v>1563.555282794388</v>
+        <v>1046.196856938208</v>
       </c>
       <c r="R18">
-        <v>1563.555282794388</v>
+        <v>9415.771712443873</v>
       </c>
       <c r="S18">
-        <v>0.02163666224989133</v>
+        <v>0.01118501110600508</v>
       </c>
       <c r="T18">
-        <v>0.02163666224989133</v>
+        <v>0.01238169787201432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.79852611171826</v>
+        <v>5.492688</v>
       </c>
       <c r="H19">
-        <v>8.79852611171826</v>
+        <v>16.478064</v>
       </c>
       <c r="I19">
-        <v>0.05952612375788651</v>
+        <v>0.03240237809799983</v>
       </c>
       <c r="J19">
-        <v>0.05952612375788651</v>
+        <v>0.03350106108374092</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N19">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O19">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P19">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q19">
-        <v>1087.963437622607</v>
+        <v>723.0440901027841</v>
       </c>
       <c r="R19">
-        <v>1087.963437622607</v>
+        <v>6507.396810925057</v>
       </c>
       <c r="S19">
-        <v>0.01505536625350434</v>
+        <v>0.007730147652707618</v>
       </c>
       <c r="T19">
-        <v>0.01505536625350434</v>
+        <v>0.00855719782794849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.79852611171826</v>
+        <v>5.492688</v>
       </c>
       <c r="H20">
-        <v>8.79852611171826</v>
+        <v>16.478064</v>
       </c>
       <c r="I20">
-        <v>0.05952612375788651</v>
+        <v>0.03240237809799983</v>
       </c>
       <c r="J20">
-        <v>0.05952612375788651</v>
+        <v>0.03350106108374092</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N20">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O20">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P20">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q20">
-        <v>770.1442293138634</v>
+        <v>579.9195809341441</v>
       </c>
       <c r="R20">
-        <v>770.1442293138634</v>
+        <v>5219.276228407296</v>
       </c>
       <c r="S20">
-        <v>0.01065734659767588</v>
+        <v>0.006199987039075305</v>
       </c>
       <c r="T20">
-        <v>0.01065734659767588</v>
+        <v>0.006863324998132568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.492688</v>
+      </c>
+      <c r="H21">
+        <v>16.478064</v>
+      </c>
+      <c r="I21">
+        <v>0.03240237809799983</v>
+      </c>
+      <c r="J21">
+        <v>0.03350106108374092</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>109.2851675</v>
+      </c>
+      <c r="N21">
+        <v>218.570335</v>
+      </c>
+      <c r="O21">
+        <v>0.1980579484228624</v>
+      </c>
+      <c r="P21">
+        <v>0.141371909038148</v>
+      </c>
+      <c r="Q21">
+        <v>600.26932810524</v>
+      </c>
+      <c r="R21">
+        <v>3601.61596863144</v>
+      </c>
+      <c r="S21">
+        <v>0.006417548530111736</v>
+      </c>
+      <c r="T21">
+        <v>0.004736108960212061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.677968</v>
+      </c>
+      <c r="H22">
+        <v>33.355936</v>
+      </c>
+      <c r="I22">
+        <v>0.09838640480623369</v>
+      </c>
+      <c r="J22">
+        <v>0.06781495990313867</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.80994433333333</v>
+      </c>
+      <c r="N22">
+        <v>44.429833</v>
+      </c>
+      <c r="O22">
+        <v>0.02684012165618721</v>
+      </c>
+      <c r="P22">
+        <v>0.02873734127486288</v>
+      </c>
+      <c r="Q22">
+        <v>246.9997776731147</v>
+      </c>
+      <c r="R22">
+        <v>1481.998666038688</v>
+      </c>
+      <c r="S22">
+        <v>0.002640703074314194</v>
+      </c>
+      <c r="T22">
+        <v>0.001948821646277638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.677968</v>
+      </c>
+      <c r="H23">
+        <v>33.355936</v>
+      </c>
+      <c r="I23">
+        <v>0.09838640480623369</v>
+      </c>
+      <c r="J23">
+        <v>0.06781495990313867</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>190.4708326666667</v>
+      </c>
+      <c r="N23">
+        <v>571.412498</v>
+      </c>
+      <c r="O23">
+        <v>0.3451910557977075</v>
+      </c>
+      <c r="P23">
+        <v>0.3695912150682156</v>
+      </c>
+      <c r="Q23">
+        <v>3176.666452148021</v>
+      </c>
+      <c r="R23">
+        <v>19059.99871288813</v>
+      </c>
+      <c r="S23">
+        <v>0.03396210695120445</v>
+      </c>
+      <c r="T23">
+        <v>0.02506381343040334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.677968</v>
+      </c>
+      <c r="H24">
+        <v>33.355936</v>
+      </c>
+      <c r="I24">
+        <v>0.09838640480623369</v>
+      </c>
+      <c r="J24">
+        <v>0.06781495990313867</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>131.637568</v>
+      </c>
+      <c r="N24">
+        <v>394.9127040000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2385672937130745</v>
+      </c>
+      <c r="P24">
+        <v>0.2554306505862155</v>
+      </c>
+      <c r="Q24">
+        <v>2195.447146701824</v>
+      </c>
+      <c r="R24">
+        <v>13172.68288021095</v>
+      </c>
+      <c r="S24">
+        <v>0.02347177833278219</v>
+      </c>
+      <c r="T24">
+        <v>0.01732201932753683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.79852611171826</v>
-      </c>
-      <c r="H21">
-        <v>8.79852611171826</v>
-      </c>
-      <c r="I21">
-        <v>0.05952612375788651</v>
-      </c>
-      <c r="J21">
-        <v>0.05952612375788651</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>93.21790004556171</v>
-      </c>
-      <c r="N21">
-        <v>93.21790004556171</v>
-      </c>
-      <c r="O21">
-        <v>0.1906683744583352</v>
-      </c>
-      <c r="P21">
-        <v>0.1906683744583352</v>
-      </c>
-      <c r="Q21">
-        <v>820.1801276304175</v>
-      </c>
-      <c r="R21">
-        <v>820.1801276304175</v>
-      </c>
-      <c r="S21">
-        <v>0.01134974925472191</v>
-      </c>
-      <c r="T21">
-        <v>0.01134974925472191</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.677968</v>
+      </c>
+      <c r="H25">
+        <v>33.355936</v>
+      </c>
+      <c r="I25">
+        <v>0.09838640480623369</v>
+      </c>
+      <c r="J25">
+        <v>0.06781495990313867</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>105.580288</v>
+      </c>
+      <c r="N25">
+        <v>316.740864</v>
+      </c>
+      <c r="O25">
+        <v>0.1913435804101682</v>
+      </c>
+      <c r="P25">
+        <v>0.2048688840325582</v>
+      </c>
+      <c r="Q25">
+        <v>1760.864664694784</v>
+      </c>
+      <c r="R25">
+        <v>10565.1879881687</v>
+      </c>
+      <c r="S25">
+        <v>0.01882560695930894</v>
+      </c>
+      <c r="T25">
+        <v>0.0138931751560687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.677968</v>
+      </c>
+      <c r="H26">
+        <v>33.355936</v>
+      </c>
+      <c r="I26">
+        <v>0.09838640480623369</v>
+      </c>
+      <c r="J26">
+        <v>0.06781495990313867</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>109.2851675</v>
+      </c>
+      <c r="N26">
+        <v>218.570335</v>
+      </c>
+      <c r="O26">
+        <v>0.1980579484228624</v>
+      </c>
+      <c r="P26">
+        <v>0.141371909038148</v>
+      </c>
+      <c r="Q26">
+        <v>1822.65452643964</v>
+      </c>
+      <c r="R26">
+        <v>7290.61810575856</v>
+      </c>
+      <c r="S26">
+        <v>0.01948620948862389</v>
+      </c>
+      <c r="T26">
+        <v>0.009587130342852171</v>
       </c>
     </row>
   </sheetData>
